--- a/html/resources/conditions.xlsx
+++ b/html/resources/conditions.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7AB0690-CE21-45CA-8360-F9231F63E304}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A52FC01B-907E-4E9E-AB71-5B24D43020F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-9435" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,34 +49,34 @@
     <t>Key</t>
   </si>
   <si>
+    <t>media/dcnb.png</t>
+  </si>
+  <si>
+    <t>media/dfnb.png</t>
+  </si>
+  <si>
+    <t>media/dbnb.png</t>
+  </si>
+  <si>
+    <t>media/dknb.png</t>
+  </si>
+  <si>
+    <t>Check</t>
+  </si>
+  <si>
+    <t>Cross</t>
+  </si>
+  <si>
+    <t>X_Pos</t>
+  </si>
+  <si>
+    <t>Y_Pos</t>
+  </si>
+  <si>
+    <t>Stim</t>
+  </si>
+  <si>
     <t>Ctx_Color</t>
-  </si>
-  <si>
-    <t>media/dcnb.png</t>
-  </si>
-  <si>
-    <t>media/dfnb.png</t>
-  </si>
-  <si>
-    <t>media/dbnb.png</t>
-  </si>
-  <si>
-    <t>media/dknb.png</t>
-  </si>
-  <si>
-    <t>Check</t>
-  </si>
-  <si>
-    <t>Cross</t>
-  </si>
-  <si>
-    <t>X_Pos</t>
-  </si>
-  <si>
-    <t>Y_Pos</t>
-  </si>
-  <si>
-    <t>Stim</t>
   </si>
   <si>
     <t>[1, -1, -1]</t>
@@ -403,12 +403,12 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="4" width="11.54296875" customWidth="1"/>
+    <col min="4" max="4" width="11.54296875" customWidth="1"/>
     <col min="5" max="5" width="15.7265625" customWidth="1"/>
     <col min="8" max="8" width="14.26953125" customWidth="1"/>
     <col min="9" max="9" width="19.54296875" customWidth="1"/>
@@ -417,13 +417,13 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
         <v>18</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>8</v>
-      </c>
-      <c r="C1" t="s">
-        <v>9</v>
       </c>
       <c r="D1" t="s">
         <v>7</v>
@@ -432,19 +432,19 @@
         <v>0</v>
       </c>
       <c r="F1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" t="s">
         <v>16</v>
-      </c>
-      <c r="G1" t="s">
-        <v>17</v>
       </c>
       <c r="H1" t="s">
         <v>4</v>
       </c>
       <c r="I1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" t="s">
         <v>14</v>
-      </c>
-      <c r="J1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
@@ -452,16 +452,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
         <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>19</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F2">
         <v>-3.7999999999999999E-2</v>
@@ -484,16 +484,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
         <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>20</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F3">
         <v>1.4E-2</v>
@@ -506,14 +506,14 @@
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>1</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F4">
         <v>5.7000000000000002E-2</v>
@@ -526,14 +526,14 @@
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>2</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F5">
         <v>0.1</v>
